--- a/Assets/01.Scripts/Data/Data.xlsx
+++ b/Assets/01.Scripts/Data/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\권성빈\Documents\GaymProject\Assets\01.Scripts\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EFB567E-B0DB-4E5D-B4B7-9E6728977E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30808180-8630-4D45-BEE7-4BE793B6B0B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,6 +56,14 @@
 그렇다니까 글쎼
 끼지마 제발
 ㅁㄴㅇㄻㄴㅇㄹ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트용 보석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트 하려고 만든 보석이에요 암튼 그래요</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -384,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -430,6 +438,23 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/01.Scripts/Data/Data.xlsx
+++ b/Assets/01.Scripts/Data/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\권성빈\Documents\GaymProject\Assets\01.Scripts\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30808180-8630-4D45-BEE7-4BE793B6B0B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5214083-8EE0-4FE3-BC3A-666CE4AA66A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,6 +65,37 @@
   <si>
     <t>테스트 하려고 만든 보석이에요 암튼 그래요</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트용 보석2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트용 보석3</t>
+  </si>
+  <si>
+    <t>테스트용 보석4</t>
+  </si>
+  <si>
+    <t>테스트용 보석5</t>
+  </si>
+  <si>
+    <t>테스트용 보석6</t>
+  </si>
+  <si>
+    <t>테스트용 보석7</t>
+  </si>
+  <si>
+    <t>테스트용 보석8</t>
+  </si>
+  <si>
+    <t>테스트용 보석9</t>
+  </si>
+  <si>
+    <t>테스트용 보석10</t>
+  </si>
+  <si>
+    <t>테스트용 보석11</t>
   </si>
 </sst>
 </file>
@@ -392,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -455,6 +486,176 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
